--- a/src/main/resources/templates/excel/question_import_template.xlsx
+++ b/src/main/resources/templates/excel/question_import_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="782"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="782" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách câu hỏi" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="groupQuestion", var="item", varIndex="i", lastCell="D3")</t>
+jx:each(items="groupQuestions", var="item", varIndex="i", lastCell="D3")</t>
         </r>
       </text>
     </comment>
@@ -116,9 +116,6 @@
     <t>Mã môn học</t>
   </si>
   <si>
-    <t>${item.subject.name}</t>
-  </si>
-  <si>
     <t>Mã nhóm câu hỏi</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>ĐA</t>
+  </si>
+  <si>
+    <t>${item.subject.code}</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
@@ -644,28 +644,28 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
